--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2594784.59518804</v>
+        <v>-2597692.75138851</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,76 +656,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.8257939385645</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>213.2445435269807</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>213.2445435269807</v>
       </c>
       <c r="X2" t="n">
-        <v>187.8257939385645</v>
+        <v>213.2445435269807</v>
       </c>
       <c r="Y2" t="n">
-        <v>213.2445435269807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>44.54485671512727</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1161683026967</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.3818381362696</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>47.13922690828119</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.95454262003122</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>213.2445435269807</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>202.859200011744</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>109.2153267960448</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>124.5065992268343</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.6111386045213</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>213.2445435269807</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>140.7496899610204</v>
+        <v>213.2445435269807</v>
       </c>
       <c r="Y4" t="n">
-        <v>213.2445435269807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,7 +911,7 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>212.568965117905</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>59.80127191868297</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,13 +978,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5979348845814347</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>84.85732801348466</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>65.77030295285046</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>75.03586362482024</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.7046355963988</v>
+        <v>11.70463559639881</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>189.7865534147176</v>
       </c>
       <c r="I8" t="n">
-        <v>71.76006534832746</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.3451584148635</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>330.5780623878046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>37.72232753176624</v>
+        <v>37.72232753178283</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.113909828375</v>
+        <v>23.11390982837474</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>135.9242753073315</v>
+        <v>135.9242753073314</v>
       </c>
       <c r="T9" t="n">
         <v>192.4050060886848</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3769947067961</v>
       </c>
       <c r="H10" t="n">
-        <v>147.8773816953846</v>
+        <v>147.8773816953845</v>
       </c>
       <c r="I10" t="n">
-        <v>106.9135546754405</v>
+        <v>106.9135546754403</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>104.722772403321</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>195.8892473348155</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>115.0307791306633</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>40.09452819982356</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>176.76214411214</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>107.5034532829755</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>114.8498234654383</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206834</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>26.05480806223633</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.51491006411167</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261725</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652584</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2792,10 +2792,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261734</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652565</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3551,19 +3551,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808158</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096042</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972048</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808158</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>232.4580922972905</v>
+        <v>17.05956348215845</v>
       </c>
       <c r="C2" t="n">
         <v>17.05956348215845</v>
@@ -4364,16 +4364,16 @@
         <v>852.9781741079227</v>
       </c>
       <c r="V2" t="n">
-        <v>852.9781741079227</v>
+        <v>637.5796452927907</v>
       </c>
       <c r="W2" t="n">
-        <v>637.5796452927907</v>
+        <v>422.1811164776587</v>
       </c>
       <c r="X2" t="n">
-        <v>447.8566211124225</v>
+        <v>206.7825876625267</v>
       </c>
       <c r="Y2" t="n">
-        <v>232.4580922972905</v>
+        <v>206.7825876625267</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.05956348215845</v>
+        <v>828.7816664109214</v>
       </c>
       <c r="C3" t="n">
-        <v>17.05956348215845</v>
+        <v>654.3286371297944</v>
       </c>
       <c r="D3" t="n">
-        <v>17.05956348215845</v>
+        <v>609.3338323670396</v>
       </c>
       <c r="E3" t="n">
-        <v>17.05956348215845</v>
+        <v>450.0963773615841</v>
       </c>
       <c r="F3" t="n">
-        <v>17.05956348215845</v>
+        <v>303.5618193884691</v>
       </c>
       <c r="G3" t="n">
-        <v>17.05956348215845</v>
+        <v>166.070740294836</v>
       </c>
       <c r="H3" t="n">
-        <v>17.05956348215845</v>
+        <v>64.674944197594</v>
       </c>
       <c r="I3" t="n">
         <v>17.05956348215845</v>
       </c>
       <c r="J3" t="n">
-        <v>49.58400458051115</v>
+        <v>17.05956348215845</v>
       </c>
       <c r="K3" t="n">
-        <v>109.3290061694342</v>
+        <v>76.80456507108148</v>
       </c>
       <c r="L3" t="n">
-        <v>235.9860749520332</v>
+        <v>203.4616338536806</v>
       </c>
       <c r="M3" t="n">
-        <v>403.145768365604</v>
+        <v>370.6213272672513</v>
       </c>
       <c r="N3" t="n">
-        <v>589.1383263803878</v>
+        <v>556.6138852820351</v>
       </c>
       <c r="O3" t="n">
-        <v>737.0653851695868</v>
+        <v>704.5409440712341</v>
       </c>
       <c r="P3" t="n">
-        <v>836.4568250845134</v>
+        <v>803.9323839861607</v>
       </c>
       <c r="Q3" t="n">
         <v>852.9781741079227</v>
       </c>
       <c r="R3" t="n">
-        <v>852.9781741079227</v>
+        <v>828.7816664109214</v>
       </c>
       <c r="S3" t="n">
-        <v>852.9781741079227</v>
+        <v>828.7816664109214</v>
       </c>
       <c r="T3" t="n">
-        <v>852.9781741079227</v>
+        <v>828.7816664109214</v>
       </c>
       <c r="U3" t="n">
-        <v>637.5796452927907</v>
+        <v>828.7816664109214</v>
       </c>
       <c r="V3" t="n">
-        <v>637.5796452927907</v>
+        <v>828.7816664109214</v>
       </c>
       <c r="W3" t="n">
-        <v>432.6713624526452</v>
+        <v>828.7816664109214</v>
       </c>
       <c r="X3" t="n">
-        <v>224.8198622471124</v>
+        <v>828.7816664109214</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.05956348215845</v>
+        <v>828.7816664109214</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>313.7597764615201</v>
+        <v>422.1811164776587</v>
       </c>
       <c r="C4" t="n">
-        <v>313.7597764615201</v>
+        <v>311.8626045624619</v>
       </c>
       <c r="D4" t="n">
-        <v>163.6431370491844</v>
+        <v>311.8626045624619</v>
       </c>
       <c r="E4" t="n">
-        <v>163.6431370491844</v>
+        <v>163.9495109800688</v>
       </c>
       <c r="F4" t="n">
-        <v>163.6431370491844</v>
+        <v>17.05956348215845</v>
       </c>
       <c r="G4" t="n">
-        <v>163.6431370491844</v>
+        <v>17.05956348215845</v>
       </c>
       <c r="H4" t="n">
-        <v>163.6431370491844</v>
+        <v>17.05956348215845</v>
       </c>
       <c r="I4" t="n">
-        <v>37.87889540591735</v>
+        <v>17.05956348215845</v>
       </c>
       <c r="J4" t="n">
         <v>17.05956348215845</v>
@@ -4501,7 +4501,7 @@
         <v>594.2703086122145</v>
       </c>
       <c r="O4" t="n">
-        <v>762.5951431661857</v>
+        <v>732.4678813621425</v>
       </c>
       <c r="P4" t="n">
         <v>852.9781741079227</v>
@@ -4519,19 +4519,19 @@
         <v>852.9781741079227</v>
       </c>
       <c r="U4" t="n">
-        <v>852.9781741079227</v>
+        <v>637.5796452927907</v>
       </c>
       <c r="V4" t="n">
-        <v>852.9781741079227</v>
+        <v>637.5796452927907</v>
       </c>
       <c r="W4" t="n">
-        <v>852.9781741079227</v>
+        <v>637.5796452927907</v>
       </c>
       <c r="X4" t="n">
-        <v>710.8067701068919</v>
+        <v>422.1811164776587</v>
       </c>
       <c r="Y4" t="n">
-        <v>495.4082412917599</v>
+        <v>422.1811164776587</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.4778634388467</v>
+        <v>573.7617370571244</v>
       </c>
       <c r="C5" t="n">
-        <v>522.1002068716687</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D5" t="n">
-        <v>522.1002068716687</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7225503044907</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="F5" t="n">
-        <v>248.7770495552872</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G5" t="n">
-        <v>235.8132367818427</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="H5" t="n">
         <v>21.0971104001205</v>
@@ -4565,22 +4565,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243023</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243023</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571244</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388467</v>
+        <v>573.7617370571244</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>122.1852469211217</v>
+        <v>461.415698511977</v>
       </c>
       <c r="C6" t="n">
-        <v>122.1852469211217</v>
+        <v>461.415698511977</v>
       </c>
       <c r="D6" t="n">
-        <v>122.1852469211217</v>
+        <v>312.4812888507257</v>
       </c>
       <c r="E6" t="n">
-        <v>122.1852469211217</v>
+        <v>312.4812888507257</v>
       </c>
       <c r="F6" t="n">
-        <v>122.1852469211217</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="G6" t="n">
-        <v>122.1852469211217</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H6" t="n">
-        <v>21.70108503101083</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I6" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>26.30736892571888</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>100.9913896951731</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>247.7358133554698</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>438.3365024519936</v>
+        <v>503.6022960313625</v>
       </c>
       <c r="N6" t="n">
-        <v>648.3904695545987</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
         <v>909.4672107560898</v>
@@ -4674,22 +4674,22 @@
         <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>839.7105578442525</v>
+        <v>950.8051634719213</v>
       </c>
       <c r="U6" t="n">
-        <v>611.574711881066</v>
+        <v>950.8051634719213</v>
       </c>
       <c r="V6" t="n">
-        <v>376.4226036493233</v>
+        <v>715.6530552401787</v>
       </c>
       <c r="W6" t="n">
-        <v>122.1852469211217</v>
+        <v>461.415698511977</v>
       </c>
       <c r="X6" t="n">
-        <v>122.1852469211217</v>
+        <v>461.415698511977</v>
       </c>
       <c r="Y6" t="n">
-        <v>122.1852469211217</v>
+        <v>461.415698511977</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>343.9546663945495</v>
+        <v>87.53175984744419</v>
       </c>
       <c r="C7" t="n">
-        <v>175.0184834666425</v>
+        <v>87.53175984744419</v>
       </c>
       <c r="D7" t="n">
-        <v>175.0184834666425</v>
+        <v>87.53175984744419</v>
       </c>
       <c r="E7" t="n">
-        <v>175.0184834666425</v>
+        <v>87.53175984744419</v>
       </c>
       <c r="F7" t="n">
-        <v>175.0184834666425</v>
+        <v>87.53175984744419</v>
       </c>
       <c r="G7" t="n">
-        <v>175.0184834666425</v>
+        <v>87.53175984744419</v>
       </c>
       <c r="H7" t="n">
         <v>21.0971104001205</v>
@@ -4726,19 +4726,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>979.0617183647922</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>979.0617183647922</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>753.5926821228065</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="U7" t="n">
-        <v>753.5926821228065</v>
+        <v>563.0088271968611</v>
       </c>
       <c r="V7" t="n">
-        <v>753.5926821228065</v>
+        <v>308.3243389909743</v>
       </c>
       <c r="W7" t="n">
-        <v>753.5926821228065</v>
+        <v>308.3243389909743</v>
       </c>
       <c r="X7" t="n">
-        <v>525.6031312247892</v>
+        <v>308.3243389909743</v>
       </c>
       <c r="Y7" t="n">
-        <v>525.6031312247892</v>
+        <v>87.53175984744419</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1332.542099762346</v>
+        <v>1774.94858608364</v>
       </c>
       <c r="C8" t="n">
-        <v>1332.542099762346</v>
+        <v>1405.986069143228</v>
       </c>
       <c r="D8" t="n">
-        <v>1332.542099762346</v>
+        <v>1047.720370536478</v>
       </c>
       <c r="E8" t="n">
-        <v>946.7538471641014</v>
+        <v>661.9321179382332</v>
       </c>
       <c r="F8" t="n">
-        <v>535.7679423744939</v>
+        <v>250.9462131486256</v>
       </c>
       <c r="G8" t="n">
-        <v>119.9046740953031</v>
+        <v>239.123348909839</v>
       </c>
       <c r="H8" t="n">
-        <v>119.9046740953031</v>
+        <v>47.41975960204338</v>
       </c>
       <c r="I8" t="n">
-        <v>47.41975960204305</v>
+        <v>47.41975960204338</v>
       </c>
       <c r="J8" t="n">
-        <v>170.5148728187094</v>
+        <v>170.5148728187105</v>
       </c>
       <c r="K8" t="n">
-        <v>405.7410566601678</v>
+        <v>405.7410566601702</v>
       </c>
       <c r="L8" t="n">
-        <v>734.461699695438</v>
+        <v>734.4616996954426</v>
       </c>
       <c r="M8" t="n">
-        <v>1131.896190203347</v>
+        <v>1131.896190203355</v>
       </c>
       <c r="N8" t="n">
-        <v>1540.375394651476</v>
+        <v>1540.375394651485</v>
       </c>
       <c r="O8" t="n">
-        <v>1912.75546305787</v>
+        <v>1912.755463057881</v>
       </c>
       <c r="P8" t="n">
-        <v>2196.072235266404</v>
+        <v>2196.072235266418</v>
       </c>
       <c r="Q8" t="n">
-        <v>2360.658585581857</v>
+        <v>2360.658585581873</v>
       </c>
       <c r="R8" t="n">
-        <v>2370.987980102153</v>
+        <v>2370.987980102169</v>
       </c>
       <c r="S8" t="n">
-        <v>2370.987980102153</v>
+        <v>2370.987980102169</v>
       </c>
       <c r="T8" t="n">
-        <v>2370.987980102153</v>
+        <v>2161.548426147761</v>
       </c>
       <c r="U8" t="n">
-        <v>2370.987980102153</v>
+        <v>2161.548426147761</v>
       </c>
       <c r="V8" t="n">
-        <v>2039.925092758582</v>
+        <v>2161.548426147761</v>
       </c>
       <c r="W8" t="n">
-        <v>2039.925092758582</v>
+        <v>2161.548426147761</v>
       </c>
       <c r="X8" t="n">
-        <v>1666.459334497502</v>
+        <v>2161.548426147761</v>
       </c>
       <c r="Y8" t="n">
-        <v>1332.542099762346</v>
+        <v>2161.548426147761</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>738.0299563312153</v>
+        <v>738.0299563312321</v>
       </c>
       <c r="C9" t="n">
-        <v>563.5769270500883</v>
+        <v>563.5769270501052</v>
       </c>
       <c r="D9" t="n">
-        <v>414.6425173888371</v>
+        <v>414.6425173888539</v>
       </c>
       <c r="E9" t="n">
-        <v>255.4050623833816</v>
+        <v>255.4050623833984</v>
       </c>
       <c r="F9" t="n">
-        <v>108.8705044102665</v>
+        <v>108.8705044102834</v>
       </c>
       <c r="G9" t="n">
-        <v>70.76714326706831</v>
+        <v>70.76714326706838</v>
       </c>
       <c r="H9" t="n">
-        <v>70.76714326706831</v>
+        <v>70.76714326706838</v>
       </c>
       <c r="I9" t="n">
-        <v>47.41975960204305</v>
+        <v>47.41975960204338</v>
       </c>
       <c r="J9" t="n">
-        <v>101.9165187909492</v>
+        <v>226.7466437779549</v>
       </c>
       <c r="K9" t="n">
-        <v>273.2149850858082</v>
+        <v>659.8656947152679</v>
       </c>
       <c r="L9" t="n">
-        <v>549.8694537181332</v>
+        <v>1014.816693540163</v>
       </c>
       <c r="M9" t="n">
-        <v>892.0690378360503</v>
+        <v>1357.016277658082</v>
       </c>
       <c r="N9" t="n">
-        <v>1478.888562911333</v>
+        <v>1722.681511436707</v>
       </c>
       <c r="O9" t="n">
-        <v>1791.181018118027</v>
+        <v>2034.973966643403</v>
       </c>
       <c r="P9" t="n">
-        <v>2247.106231494488</v>
+        <v>2266.283127892688</v>
       </c>
       <c r="Q9" t="n">
-        <v>2351.811083703968</v>
+        <v>2370.987980102169</v>
       </c>
       <c r="R9" t="n">
-        <v>2370.987980102153</v>
+        <v>2370.987980102169</v>
       </c>
       <c r="S9" t="n">
-        <v>2233.690732316969</v>
+        <v>2233.690732316986</v>
       </c>
       <c r="T9" t="n">
-        <v>2039.342241318298</v>
+        <v>2039.342241318314</v>
       </c>
       <c r="U9" t="n">
-        <v>1811.246557281714</v>
+        <v>1811.246557281731</v>
       </c>
       <c r="V9" t="n">
-        <v>1576.094449049972</v>
+        <v>1576.094449049988</v>
       </c>
       <c r="W9" t="n">
-        <v>1321.85709232177</v>
+        <v>1321.857092321787</v>
       </c>
       <c r="X9" t="n">
-        <v>1114.005592116237</v>
+        <v>1114.005592116254</v>
       </c>
       <c r="Y9" t="n">
-        <v>906.2452933512834</v>
+        <v>906.2452933513002</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>599.5873828750991</v>
+        <v>1086.697775626247</v>
       </c>
       <c r="C10" t="n">
-        <v>599.5873828750991</v>
+        <v>917.7615926983402</v>
       </c>
       <c r="D10" t="n">
-        <v>599.5873828750991</v>
+        <v>767.6449532860045</v>
       </c>
       <c r="E10" t="n">
-        <v>451.674289292706</v>
+        <v>619.7318597036113</v>
       </c>
       <c r="F10" t="n">
-        <v>304.7843417947956</v>
+        <v>472.841912205701</v>
       </c>
       <c r="G10" t="n">
-        <v>304.7843417947956</v>
+        <v>304.7843417947958</v>
       </c>
       <c r="H10" t="n">
-        <v>155.4132491731951</v>
+        <v>155.4132491731952</v>
       </c>
       <c r="I10" t="n">
-        <v>47.41975960204305</v>
+        <v>47.41975960204338</v>
       </c>
       <c r="J10" t="n">
-        <v>67.96179901035899</v>
+        <v>67.96179901035974</v>
       </c>
       <c r="K10" t="n">
-        <v>231.5555167369698</v>
+        <v>231.5555167369713</v>
       </c>
       <c r="L10" t="n">
-        <v>496.4255866842977</v>
+        <v>496.4255866843001</v>
       </c>
       <c r="M10" t="n">
-        <v>786.0830610140874</v>
+        <v>786.0830610140907</v>
       </c>
       <c r="N10" t="n">
-        <v>1074.287744442456</v>
+        <v>1074.287744442461</v>
       </c>
       <c r="O10" t="n">
-        <v>1324.47512135381</v>
+        <v>1324.475121353815</v>
       </c>
       <c r="P10" t="n">
-        <v>1515.03296127753</v>
+        <v>1515.032961277536</v>
       </c>
       <c r="Q10" t="n">
-        <v>1563.530252096532</v>
+        <v>1563.530252096539</v>
       </c>
       <c r="R10" t="n">
-        <v>1457.74967391136</v>
+        <v>1563.530252096539</v>
       </c>
       <c r="S10" t="n">
-        <v>1259.881747310536</v>
+        <v>1563.530252096539</v>
       </c>
       <c r="T10" t="n">
-        <v>1143.689041117947</v>
+        <v>1563.530252096539</v>
       </c>
       <c r="U10" t="n">
-        <v>1143.689041117947</v>
+        <v>1563.530252096539</v>
       </c>
       <c r="V10" t="n">
-        <v>889.0045529120598</v>
+        <v>1308.845763890652</v>
       </c>
       <c r="W10" t="n">
-        <v>599.5873828750991</v>
+        <v>1308.845763890652</v>
       </c>
       <c r="X10" t="n">
-        <v>599.5873828750991</v>
+        <v>1308.845763890652</v>
       </c>
       <c r="Y10" t="n">
-        <v>599.5873828750991</v>
+        <v>1268.346240456487</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,7 +5057,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5255,40 +5255,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5309,16 +5309,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,43 +5492,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,7 +5546,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1231.938859683104</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.5380889459586</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C19" t="n">
-        <v>599.6019060180517</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D19" t="n">
-        <v>599.6019060180517</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>451.6888124356586</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>451.6888124356586</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>284.4927131505386</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854707</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817746</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761984</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,55 +5744,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474266</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>261.8464821474266</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>261.8464821474266</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5981,46 +5981,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,58 +6218,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6361,7 +6361,7 @@
         <v>926.9575315319325</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D28" t="n">
         <v>656.9646031150025</v>
@@ -6370,25 +6370,25 @@
         <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F31" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
@@ -6680,67 +6680,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1702.07903472198</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,7 +6880,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
@@ -6889,10 +6889,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6950,25 +6950,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190824</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380723</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7114,7 +7114,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931273</v>
@@ -7123,13 +7123,13 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7166,13 +7166,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075802</v>
@@ -7184,31 +7184,31 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,10 +7345,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,28 +7421,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,22 +7482,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547835</v>
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,52 +7634,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,16 +7719,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7795,22 +7795,22 @@
         <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>43.73304569970175</v>
+        <v>10.88007489328488</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>32.8529708064168</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8149,10 +8149,10 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>132.6100887860408</v>
       </c>
       <c r="P4" t="n">
-        <v>104.5749857341995</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>7.314107919012561</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,13 +8301,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>26.13373767211354</v>
       </c>
       <c r="O6" t="n">
-        <v>92.05878169167806</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>79.08740423491753</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>223.3881730269284</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>226.8849011385632</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>26.15106738891183</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>172.376622132619</v>
       </c>
       <c r="C2" t="n">
-        <v>152.0283482440269</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.0088297444486</v>
+        <v>13.00882974444866</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.9823191592251</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>122.0400102410186</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5.774433940770336</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>156.7476462617291</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.0542682979517</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>114.5077149431542</v>
       </c>
       <c r="W2" t="n">
         <v>135.9964251904323</v>
       </c>
       <c r="X2" t="n">
-        <v>181.9053067399045</v>
+        <v>156.4865571514884</v>
       </c>
       <c r="Y2" t="n">
-        <v>57.27141523305468</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22632,13 +22632,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1161683026967</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -22680,7 +22680,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>12.61609191843402</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22711,13 +22711,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9620113031242</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>131.0272459073095</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.0844911090059</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.5490895554885</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2629038261999</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>84.95996542801674</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.340109825114126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>75.37549921168795</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>32.79125956324833</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>137.2878198583897</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>139.4693302300325</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>164.3170701178256</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16230.45558071831</v>
+        <v>16230.4555807183</v>
       </c>
       <c r="C2" t="n">
         <v>20526.04424660708</v>
       </c>
       <c r="D2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20178.66499225015</v>
+      </c>
+      <c r="F2" t="n">
+        <v>20178.66499225015</v>
+      </c>
+      <c r="G2" t="n">
+        <v>20178.66499225015</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20178.66499225015</v>
+      </c>
+      <c r="I2" t="n">
+        <v>20178.66499225015</v>
+      </c>
+      <c r="J2" t="n">
         <v>20526.04424660709</v>
       </c>
-      <c r="E2" t="n">
-        <v>20178.66499225016</v>
-      </c>
-      <c r="F2" t="n">
-        <v>20178.66499225016</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20178.66499225016</v>
-      </c>
-      <c r="H2" t="n">
-        <v>20178.66499225016</v>
-      </c>
-      <c r="I2" t="n">
-        <v>20178.66499225016</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="L2" t="n">
         <v>20526.0442466071</v>
-      </c>
-      <c r="K2" t="n">
-        <v>20526.0442466071</v>
-      </c>
-      <c r="L2" t="n">
-        <v>20526.04424660709</v>
       </c>
       <c r="M2" t="n">
         <v>20526.0442466071</v>
@@ -26350,7 +26350,7 @@
         <v>20526.04424660709</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="P2" t="n">
         <v>20526.0442466071</v>
@@ -26369,10 +26369,10 @@
         <v>55866.68210941416</v>
       </c>
       <c r="D3" t="n">
-        <v>342836.6290448922</v>
+        <v>342836.6290448964</v>
       </c>
       <c r="E3" t="n">
-        <v>553131.2422546463</v>
+        <v>553131.2422546421</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>75221.87334020509</v>
+        <v>75221.87334020506</v>
       </c>
       <c r="K3" t="n">
-        <v>12989.19218977569</v>
+        <v>12989.19218977575</v>
       </c>
       <c r="L3" t="n">
-        <v>83275.32011454726</v>
+        <v>83275.3201145483</v>
       </c>
       <c r="M3" t="n">
-        <v>144528.6740792406</v>
+        <v>144528.6740792395</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>253911.4645514929</v>
       </c>
       <c r="D4" t="n">
-        <v>157409.7734879385</v>
+        <v>157409.7734879373</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26433,28 +26433,28 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>20987.72340992383</v>
+        <v>20987.72340992397</v>
       </c>
       <c r="K4" t="n">
-        <v>20987.72340992389</v>
+        <v>20987.72340992393</v>
       </c>
       <c r="L4" t="n">
-        <v>20987.72340992386</v>
+        <v>20987.72340992393</v>
       </c>
       <c r="M4" t="n">
         <v>20987.7234099239</v>
       </c>
       <c r="N4" t="n">
-        <v>20987.7234099239</v>
+        <v>20987.72340992395</v>
       </c>
       <c r="O4" t="n">
-        <v>20987.7234099239</v>
+        <v>20987.72340992391</v>
       </c>
       <c r="P4" t="n">
         <v>20987.7234099239</v>
@@ -26473,7 +26473,7 @@
         <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>89178.22447737958</v>
+        <v>89178.22447737992</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-835082.0651414908</v>
+        <v>-835511.6240080798</v>
       </c>
       <c r="C6" t="n">
         <v>-352299.9056185661</v>
       </c>
       <c r="D6" t="n">
-        <v>-568898.5827636032</v>
+        <v>-568898.5827636066</v>
       </c>
       <c r="E6" t="n">
-        <v>-647071.9712331336</v>
+        <v>-647106.709158565</v>
       </c>
       <c r="F6" t="n">
-        <v>-93940.7289784874</v>
+        <v>-93975.46690392309</v>
       </c>
       <c r="G6" t="n">
-        <v>-93940.72897848739</v>
+        <v>-93975.46690392309</v>
       </c>
       <c r="H6" t="n">
-        <v>-93940.72897848739</v>
+        <v>-93975.46690392312</v>
       </c>
       <c r="I6" t="n">
-        <v>-93940.7289784874</v>
+        <v>-93975.46690392309</v>
       </c>
       <c r="J6" t="n">
-        <v>-178847.6683574372</v>
+        <v>-178847.6683574373</v>
       </c>
       <c r="K6" t="n">
-        <v>-116614.9872070079</v>
+        <v>-116614.987207008</v>
       </c>
       <c r="L6" t="n">
-        <v>-186901.1151317795</v>
+        <v>-186901.1151317805</v>
       </c>
       <c r="M6" t="n">
-        <v>-248154.4690964728</v>
+        <v>-248154.4690964717</v>
       </c>
       <c r="N6" t="n">
         <v>-103625.7950172322</v>
@@ -26707,13 +26707,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203971</v>
@@ -26722,7 +26722,7 @@
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203971</v>
@@ -26741,7 +26741,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>895.0278522856366</v>
+        <v>895.0278522856401</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>592.7469950255381</v>
+        <v>592.7469950255422</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,31 +26805,31 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>43.44545581123737</v>
       </c>
       <c r="D3" t="n">
-        <v>280.9728385161583</v>
+        <v>280.9728385161617</v>
       </c>
       <c r="E3" t="n">
-        <v>472.9476480560373</v>
+        <v>472.9476480560337</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>50.46933647452553</v>
       </c>
       <c r="D4" t="n">
-        <v>329.0331150240319</v>
+        <v>329.033115024036</v>
       </c>
       <c r="E4" t="n">
-        <v>579.9612930741102</v>
+        <v>579.9612930741062</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>213.2445435269806</v>
+        <v>213.2445435269805</v>
       </c>
       <c r="K4" t="n">
-        <v>50.46933647452553</v>
+        <v>50.46933647452579</v>
       </c>
       <c r="L4" t="n">
-        <v>329.0331150240319</v>
+        <v>329.033115024036</v>
       </c>
       <c r="M4" t="n">
-        <v>579.9612930741102</v>
+        <v>579.9612930741062</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>50.46933647452553</v>
       </c>
       <c r="L4" t="n">
-        <v>329.0331150240319</v>
+        <v>329.033115024036</v>
       </c>
       <c r="M4" t="n">
-        <v>579.9612930741102</v>
+        <v>579.9612930741062</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>22.53142559229707</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>315.9823191592251</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>122.0400102410186</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>5.774433940770336</v>
       </c>
       <c r="S2" t="n">
-        <v>156.7476462617291</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.0542682979517</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1621402861816</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>115.7219798960182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27458,10 +27458,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>102.9002088495115</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.3818381362696</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>47.13922690828119</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.95454262003122</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>148.8857043306949</v>
@@ -27512,19 +27512,19 @@
         <v>195.2176514895044</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8606354454147</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>48.8357831491756</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>58.03149430258303</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,16 +27549,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9620113031242</v>
       </c>
       <c r="H4" t="n">
         <v>153.0787110700107</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>124.5065992268343</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20.6111386045213</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>131.0272459073095</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>206.0844911090059</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.5490895554885</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>73.01836029921925</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>12.46511186205649</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>101.624667511363</v>
+        <v>50.4797526277618</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27673,16 +27673,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>267.9509865514519</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27698,13 +27698,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32386911692415</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,10 +27746,10 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>109.9836595713921</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,7 +27789,7 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>86.61185638300633</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>52.46873925884368</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.5447505011713</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>302.6257408405098</v>
+        <v>112.839187425792</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>71.76006534832695</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.0283221130435</v>
+        <v>127.0283221130432</v>
       </c>
       <c r="T8" t="n">
-        <v>207.3451584148635</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0578047543376</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>55.65987626824898</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27944,10 +27944,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>97.69603538313189</v>
+        <v>97.69603538311529</v>
       </c>
       <c r="H9" t="n">
-        <v>93.64250715410994</v>
+        <v>93.64250715410986</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3769947067961</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>104.7227724033207</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>195.8892473348154</v>
       </c>
       <c r="T10" t="n">
-        <v>106.0186940586961</v>
+        <v>221.0494731893594</v>
       </c>
       <c r="U10" t="n">
         <v>286.2309938300365</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>178.4901251522712</v>
       </c>
     </row>
     <row r="11">
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.598101918736225</v>
+        <v>3.598101918736239</v>
       </c>
       <c r="H8" t="n">
-        <v>36.84906127525738</v>
+        <v>36.84906127525751</v>
       </c>
       <c r="I8" t="n">
-        <v>138.7158242220785</v>
+        <v>138.715824222079</v>
       </c>
       <c r="J8" t="n">
-        <v>305.3844027253389</v>
+        <v>305.3844027253401</v>
       </c>
       <c r="K8" t="n">
-        <v>457.6920569454434</v>
+        <v>457.6920569454452</v>
       </c>
       <c r="L8" t="n">
-        <v>567.8074685409673</v>
+        <v>567.8074685409695</v>
       </c>
       <c r="M8" t="n">
-        <v>631.7952135382926</v>
+        <v>631.795213538295</v>
       </c>
       <c r="N8" t="n">
-        <v>642.018320614902</v>
+        <v>642.0183206149044</v>
       </c>
       <c r="O8" t="n">
-        <v>606.2396946604686</v>
+        <v>606.2396946604709</v>
       </c>
       <c r="P8" t="n">
-        <v>517.411553541668</v>
+        <v>517.4115535416699</v>
       </c>
       <c r="Q8" t="n">
-        <v>388.5545285769268</v>
+        <v>388.5545285769282</v>
       </c>
       <c r="R8" t="n">
-        <v>226.0192696528146</v>
+        <v>226.0192696528155</v>
       </c>
       <c r="S8" t="n">
-        <v>81.99174747320181</v>
+        <v>81.99174747320212</v>
       </c>
       <c r="T8" t="n">
-        <v>15.75069114926783</v>
+        <v>15.75069114926789</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2878481534988979</v>
+        <v>0.287848153498899</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.925154248312501</v>
+        <v>1.925154248312509</v>
       </c>
       <c r="H9" t="n">
-        <v>18.59293708238653</v>
+        <v>18.5929370823866</v>
       </c>
       <c r="I9" t="n">
-        <v>66.28272302304008</v>
+        <v>66.28272302304033</v>
       </c>
       <c r="J9" t="n">
-        <v>181.8848581706123</v>
+        <v>181.884858170613</v>
       </c>
       <c r="K9" t="n">
-        <v>310.8701928075499</v>
+        <v>310.8701928075511</v>
       </c>
       <c r="L9" t="n">
-        <v>418.0033379943438</v>
+        <v>418.0033379943454</v>
       </c>
       <c r="M9" t="n">
-        <v>487.7901794956719</v>
+        <v>487.7901794956738</v>
       </c>
       <c r="N9" t="n">
-        <v>500.7005340819431</v>
+        <v>500.700534081945</v>
       </c>
       <c r="O9" t="n">
-        <v>458.0431688956503</v>
+        <v>458.0431688956521</v>
       </c>
       <c r="P9" t="n">
-        <v>367.6200248378495</v>
+        <v>367.620024837851</v>
       </c>
       <c r="Q9" t="n">
-        <v>245.7442510652941</v>
+        <v>245.744251065295</v>
       </c>
       <c r="R9" t="n">
-        <v>119.5284365750517</v>
+        <v>119.5284365750521</v>
       </c>
       <c r="S9" t="n">
-        <v>35.75889579650631</v>
+        <v>35.75889579650644</v>
       </c>
       <c r="T9" t="n">
-        <v>7.759722606136791</v>
+        <v>7.75972260613682</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1266548847574015</v>
+        <v>0.1266548847574019</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.613984651662623</v>
+        <v>1.613984651662629</v>
       </c>
       <c r="H10" t="n">
-        <v>14.34979081205497</v>
+        <v>14.34979081205502</v>
       </c>
       <c r="I10" t="n">
-        <v>48.53692025181781</v>
+        <v>48.536920251818</v>
       </c>
       <c r="J10" t="n">
-        <v>114.1087148725475</v>
+        <v>114.1087148725479</v>
       </c>
       <c r="K10" t="n">
-        <v>187.515671347712</v>
+        <v>187.5156713477127</v>
       </c>
       <c r="L10" t="n">
-        <v>239.955499939005</v>
+        <v>239.9554999390059</v>
       </c>
       <c r="M10" t="n">
-        <v>252.9994304419874</v>
+        <v>252.9994304419883</v>
       </c>
       <c r="N10" t="n">
-        <v>246.9836694676087</v>
+        <v>246.9836694676096</v>
       </c>
       <c r="O10" t="n">
-        <v>228.1293942186407</v>
+        <v>228.1293942186416</v>
       </c>
       <c r="P10" t="n">
-        <v>195.204107324723</v>
+        <v>195.2041073247238</v>
       </c>
       <c r="Q10" t="n">
-        <v>135.1492056951311</v>
+        <v>135.1492056951317</v>
       </c>
       <c r="R10" t="n">
-        <v>72.57061897384848</v>
+        <v>72.57061897384875</v>
       </c>
       <c r="S10" t="n">
-        <v>28.1273507021568</v>
+        <v>28.1273507021569</v>
       </c>
       <c r="T10" t="n">
-        <v>6.896116238922116</v>
+        <v>6.896116238922142</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08803552645432501</v>
+        <v>0.08803552645432534</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>597.1709559744729</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>301.1823051500296</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>370.9642309107744</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>338.6542681503479</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N36" t="n">
-        <v>357.9244589488883</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>244.0266243181827</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>366.8427442359099</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>32.85297080641686</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>60.34848645345761</v>
@@ -34796,7 +34796,7 @@
         <v>100.3953938534613</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.68823133677705</v>
+        <v>49.54120214319385</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34869,10 +34869,10 @@
         <v>201.5923476105577</v>
       </c>
       <c r="O4" t="n">
-        <v>170.0250854080517</v>
+        <v>139.5935078282101</v>
       </c>
       <c r="P4" t="n">
-        <v>91.29599085023933</v>
+        <v>121.7275684300809</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>5.262887399594324</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>75.4384048176305</v>
@@ -35021,13 +35021,13 @@
         <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>238.3094620181793</v>
       </c>
       <c r="O6" t="n">
-        <v>263.7138800015062</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
         <v>118.240000033741</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>124.3384981986526</v>
+        <v>124.3384981986538</v>
       </c>
       <c r="K8" t="n">
-        <v>237.6022059004629</v>
+        <v>237.6022059004646</v>
       </c>
       <c r="L8" t="n">
-        <v>332.0410535709801</v>
+        <v>332.0410535709822</v>
       </c>
       <c r="M8" t="n">
-        <v>401.4489803110199</v>
+        <v>401.4489803110223</v>
       </c>
       <c r="N8" t="n">
-        <v>412.6052570183111</v>
+        <v>412.6052570183135</v>
       </c>
       <c r="O8" t="n">
-        <v>376.1414832387818</v>
+        <v>376.1414832387842</v>
       </c>
       <c r="P8" t="n">
-        <v>286.1785577863985</v>
+        <v>286.1785577864004</v>
       </c>
       <c r="Q8" t="n">
-        <v>166.2488387024773</v>
+        <v>166.2488387024788</v>
       </c>
       <c r="R8" t="n">
-        <v>10.43373183868246</v>
+        <v>10.43373183868334</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>55.0472315039456</v>
+        <v>181.1382668443551</v>
       </c>
       <c r="K9" t="n">
-        <v>173.0287538331909</v>
+        <v>437.4939908457707</v>
       </c>
       <c r="L9" t="n">
-        <v>279.4489582144697</v>
+        <v>358.5363624493888</v>
       </c>
       <c r="M9" t="n">
-        <v>345.6561455736536</v>
+        <v>345.6561455736555</v>
       </c>
       <c r="N9" t="n">
-        <v>592.7469950255381</v>
+        <v>369.3588219986117</v>
       </c>
       <c r="O9" t="n">
-        <v>315.4469244512059</v>
+        <v>315.4469244512076</v>
       </c>
       <c r="P9" t="n">
-        <v>460.5305185620825</v>
+        <v>233.6456174235207</v>
       </c>
       <c r="Q9" t="n">
-        <v>105.7624769792725</v>
+        <v>105.7624769792735</v>
       </c>
       <c r="R9" t="n">
-        <v>19.37060242240854</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.74953475587469</v>
+        <v>20.74953475587512</v>
       </c>
       <c r="K10" t="n">
-        <v>165.2461795218292</v>
+        <v>165.2461795218299</v>
       </c>
       <c r="L10" t="n">
-        <v>267.5455251993211</v>
+        <v>267.545525199322</v>
       </c>
       <c r="M10" t="n">
-        <v>292.5833074038279</v>
+        <v>292.5833074038289</v>
       </c>
       <c r="N10" t="n">
-        <v>291.1158418468373</v>
+        <v>291.1158418468382</v>
       </c>
       <c r="O10" t="n">
-        <v>252.7145221326804</v>
+        <v>252.7145221326812</v>
       </c>
       <c r="P10" t="n">
-        <v>192.4826665896165</v>
+        <v>192.4826665896173</v>
       </c>
       <c r="Q10" t="n">
-        <v>48.98716244343673</v>
+        <v>48.98716244343727</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,19 +35732,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>455.0369220524547</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>159.0482712280113</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>228.3679864663299</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,22 +36677,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,13 +36753,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>196.0580237059035</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N36" t="n">
-        <v>226.582746865555</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>101.8925903961643</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>235.5010321525766</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
